--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
@@ -383,7 +383,7 @@
     <t>serie</t>
   </si>
   <si>
-    <t>Assenso figlio</t>
+    <t>Atto Assenso Figlio</t>
   </si>
   <si>
     <t>evento.datiEventoRiconoscimento.assensoAtto</t>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
@@ -2235,7 +2235,7 @@
         <v>30</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>98</v>
@@ -2255,7 +2255,7 @@
         <v>33</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>98</v>
@@ -2275,7 +2275,7 @@
         <v>35</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>98</v>
@@ -2295,7 +2295,7 @@
         <v>37</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>98</v>
@@ -2315,7 +2315,7 @@
         <v>39</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>98</v>
@@ -2335,7 +2335,7 @@
         <v>41</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>98</v>
@@ -2355,7 +2355,7 @@
         <v>43</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>98</v>
@@ -2375,7 +2375,7 @@
         <v>45</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>98</v>
@@ -2395,7 +2395,7 @@
         <v>47</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>98</v>
@@ -2415,7 +2415,7 @@
         <v>49</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>98</v>
@@ -2435,7 +2435,7 @@
         <v>51</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>98</v>
@@ -2455,7 +2455,7 @@
         <v>53</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>98</v>
@@ -2475,7 +2475,7 @@
         <v>55</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>98</v>
@@ -2495,7 +2495,7 @@
         <v>57</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>98</v>
@@ -2515,7 +2515,7 @@
         <v>59</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>98</v>
@@ -2535,7 +2535,7 @@
         <v>61</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>98</v>
@@ -2555,7 +2555,7 @@
         <v>63</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>98</v>
@@ -2575,7 +2575,7 @@
         <v>65</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>98</v>
@@ -2595,7 +2595,7 @@
         <v>67</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>98</v>
@@ -2615,7 +2615,7 @@
         <v>69</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>98</v>
@@ -2635,7 +2635,7 @@
         <v>71</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>98</v>
@@ -2655,7 +2655,7 @@
         <v>73</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>98</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
@@ -1784,7 +1784,7 @@
         <v>46</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
@@ -1824,7 +1824,7 @@
         <v>50</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -47,6 +50,9 @@
     <t>Copia dell'atto di assenso del figlio</t>
   </si>
   <si>
+    <t>{evento.datiEventoRiconoscimento.assensoFiglio,=,2}</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -71,6 +77,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -98,6 +107,60 @@
     <t>datiProdotti</t>
   </si>
   <si>
+    <t>Dati Assenso</t>
+  </si>
+  <si>
+    <t>Riconoscimento genitore</t>
+  </si>
+  <si>
+    <t>evento.datiAssenso</t>
+  </si>
+  <si>
+    <t>tipoAssenso</t>
+  </si>
+  <si>
+    <t>Condizioni dichiarante</t>
+  </si>
+  <si>
+    <t>evento.datiDichiarante</t>
+  </si>
+  <si>
+    <t>comprensione</t>
+  </si>
+  <si>
+    <t>Motivo impedimento scrittura</t>
+  </si>
+  <si>
+    <t>motivoImpedimentoScrittura</t>
+  </si>
+  <si>
+    <t>Presenza interprete</t>
+  </si>
+  <si>
+    <t>ausilioInterprete</t>
+  </si>
+  <si>
+    <t>Figlio premorto</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento</t>
+  </si>
+  <si>
+    <t>preMorto</t>
+  </si>
+  <si>
+    <t>Presenza discendenti</t>
+  </si>
+  <si>
+    <t>presenzaDiscendenti</t>
+  </si>
+  <si>
+    <t>Tipo dichiarazione assenso</t>
+  </si>
+  <si>
+    <t>assensoFiglio</t>
+  </si>
+  <si>
     <t>Dichiarante</t>
   </si>
   <si>
@@ -263,6 +326,9 @@
     <t>dataMorte</t>
   </si>
   <si>
+    <t>{evento.datiEventoRiconoscimento.preMorto,=,false}</t>
+  </si>
+  <si>
     <t>Ora</t>
   </si>
   <si>
@@ -302,9 +368,6 @@
     <t>Dati prodotti</t>
   </si>
   <si>
-    <t>evento.datiEventoRiconoscimento</t>
-  </si>
-  <si>
     <t>Dati Riconoscimento - Generalità discendenti</t>
   </si>
   <si>
@@ -389,52 +452,16 @@
     <t>evento.datiEventoRiconoscimento.assensoAtto</t>
   </si>
   <si>
+    <t>{evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)}</t>
+  </si>
+  <si>
     <t>Interprete</t>
   </si>
   <si>
     <t>evento.interprete</t>
   </si>
   <si>
-    <t>Dettagli evento</t>
-  </si>
-  <si>
-    <t>Condizioni dichiarante</t>
-  </si>
-  <si>
-    <t>evento.datiDichiarante</t>
-  </si>
-  <si>
-    <t>comprensione</t>
-  </si>
-  <si>
-    <t>Motivo impedimento scrittura</t>
-  </si>
-  <si>
-    <t>motivoImpedimentoScrittura</t>
-  </si>
-  <si>
-    <t>Presenza interprete</t>
-  </si>
-  <si>
-    <t>ausilioInterprete</t>
-  </si>
-  <si>
-    <t>Figlio premorto</t>
-  </si>
-  <si>
-    <t>preMorto</t>
-  </si>
-  <si>
-    <t>Presenza discendenti</t>
-  </si>
-  <si>
-    <t>presenzaDiscendenti</t>
-  </si>
-  <si>
-    <t>Tipo dichiarazione assenso</t>
-  </si>
-  <si>
-    <t>assensoFiglio</t>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
 </sst>
 </file>
@@ -493,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -505,6 +532,7 @@
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="52.37890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -526,85 +554,100 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -626,3085 +669,3573 @@
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E93" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="152">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -107,7 +107,151 @@
     <t>datiProdotti</t>
   </si>
   <si>
-    <t>Dati Assenso</t>
+    <t>Dichiarante</t>
+  </si>
+  <si>
+    <t>tipoDichiarante</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>evento.dichiarante</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Nazionalita</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalita - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Padre</t>
+  </si>
+  <si>
+    <t>evento.padre</t>
   </si>
   <si>
     <t>Riconoscimento genitore</t>
@@ -119,6 +263,180 @@
     <t>tipoAssenso</t>
   </si>
   <si>
+    <t>Figlio</t>
+  </si>
+  <si>
+    <t>evento.intestatari[0]</t>
+  </si>
+  <si>
+    <t>Dati Riconoscimento - Dati di morte</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>evento.datiDiMorte</t>
+  </si>
+  <si>
+    <t>dataMorte</t>
+  </si>
+  <si>
+    <t>{evento.datiEventoRiconoscimento.preMorto,=,false}</t>
+  </si>
+  <si>
+    <t>Ora</t>
+  </si>
+  <si>
+    <t>oraMorte</t>
+  </si>
+  <si>
+    <t>minuti</t>
+  </si>
+  <si>
+    <t>minutoMorte</t>
+  </si>
+  <si>
+    <t>stato</t>
+  </si>
+  <si>
+    <t>idStatoMorte</t>
+  </si>
+  <si>
+    <t>provincia</t>
+  </si>
+  <si>
+    <t>siglaProvinciaMorte</t>
+  </si>
+  <si>
+    <t>comune</t>
+  </si>
+  <si>
+    <t>idComuneMorte</t>
+  </si>
+  <si>
+    <t>indirizzo</t>
+  </si>
+  <si>
+    <t>indirizzoMorte</t>
+  </si>
+  <si>
+    <t>Dati prodotti</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento</t>
+  </si>
+  <si>
+    <t>Dati Riconoscimento - Generalità discendenti</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
+  </si>
+  <si>
+    <t>Atto Nascita Figlio</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.attoNascita</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Assenso figlio</t>
+  </si>
+  <si>
+    <t>Tipo dichiarazione assenso</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.datiRiconoscimento[0]</t>
+  </si>
+  <si>
+    <t>assensoFiglio</t>
+  </si>
+  <si>
+    <t>{evento.datiEventoMatrimonio.datiRiconoscimento[0].infraQuattordicenne,=,true}</t>
+  </si>
+  <si>
+    <t>Assenso reso dinanzi a</t>
+  </si>
+  <si>
+    <t>assensoReso</t>
+  </si>
+  <si>
+    <t>Interprete</t>
+  </si>
+  <si>
+    <t>evento.interprete</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
+  </si>
+  <si>
+    <t>Dettagli evento</t>
+  </si>
+  <si>
     <t>Condizioni dichiarante</t>
   </si>
   <si>
@@ -143,9 +461,6 @@
     <t>Figlio premorto</t>
   </si>
   <si>
-    <t>evento.datiEventoRiconoscimento</t>
-  </si>
-  <si>
     <t>preMorto</t>
   </si>
   <si>
@@ -153,315 +468,6 @@
   </si>
   <si>
     <t>presenzaDiscendenti</t>
-  </si>
-  <si>
-    <t>Tipo dichiarazione assenso</t>
-  </si>
-  <si>
-    <t>assensoFiglio</t>
-  </si>
-  <si>
-    <t>Dichiarante</t>
-  </si>
-  <si>
-    <t>tipoDichiarante</t>
-  </si>
-  <si>
-    <t>Cognome</t>
-  </si>
-  <si>
-    <t>evento.dichiarante</t>
-  </si>
-  <si>
-    <t>cognome</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
-  </si>
-  <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
-  </si>
-  <si>
-    <t>Padre</t>
-  </si>
-  <si>
-    <t>evento.padre</t>
-  </si>
-  <si>
-    <t>Figlio</t>
-  </si>
-  <si>
-    <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>Dati Riconoscimento - Dati di morte</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>evento.datiDiMorte</t>
-  </si>
-  <si>
-    <t>dataMorte</t>
-  </si>
-  <si>
-    <t>{evento.datiEventoRiconoscimento.preMorto,=,false}</t>
-  </si>
-  <si>
-    <t>Ora</t>
-  </si>
-  <si>
-    <t>oraMorte</t>
-  </si>
-  <si>
-    <t>minuti</t>
-  </si>
-  <si>
-    <t>minutoMorte</t>
-  </si>
-  <si>
-    <t>stato</t>
-  </si>
-  <si>
-    <t>idStatoMorte</t>
-  </si>
-  <si>
-    <t>provincia</t>
-  </si>
-  <si>
-    <t>siglaProvinciaMorte</t>
-  </si>
-  <si>
-    <t>comune</t>
-  </si>
-  <si>
-    <t>idComuneMorte</t>
-  </si>
-  <si>
-    <t>indirizzo</t>
-  </si>
-  <si>
-    <t>indirizzoMorte</t>
-  </si>
-  <si>
-    <t>Dati prodotti</t>
-  </si>
-  <si>
-    <t>Dati Riconoscimento - Generalità discendenti</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
-  </si>
-  <si>
-    <t>Atto Nascita Figlio</t>
-  </si>
-  <si>
-    <t>Id atto</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.attoNascita</t>
-  </si>
-  <si>
-    <t>idAnsc</t>
-  </si>
-  <si>
-    <t>Provincia registrazione</t>
-  </si>
-  <si>
-    <t>idProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Provincia registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione</t>
-  </si>
-  <si>
-    <t>idComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Tipo evento</t>
-  </si>
-  <si>
-    <t>idtipocontenuto</t>
-  </si>
-  <si>
-    <t>Numero Comunale</t>
-  </si>
-  <si>
-    <t>Anno atto</t>
-  </si>
-  <si>
-    <t>annoAtto</t>
-  </si>
-  <si>
-    <t>Data atto</t>
-  </si>
-  <si>
-    <t>Tipo registro</t>
-  </si>
-  <si>
-    <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
-    <t>Atto Assenso Figlio</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.assensoAtto</t>
-  </si>
-  <si>
-    <t>{evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)}</t>
-  </si>
-  <si>
-    <t>Interprete</t>
-  </si>
-  <si>
-    <t>evento.interprete</t>
-  </si>
-  <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
 </sst>
 </file>
@@ -520,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -529,10 +535,10 @@
     <col min="1" max="1" width="41.359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="48.953125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="52.37890625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="75.17578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -793,16 +799,16 @@
         <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
@@ -816,16 +822,16 @@
         <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
@@ -839,16 +845,16 @@
         <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -862,16 +868,16 @@
         <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -885,16 +891,16 @@
         <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -908,16 +914,16 @@
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -931,16 +937,16 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
@@ -951,19 +957,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -974,19 +980,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
@@ -997,19 +1003,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -1020,19 +1026,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
@@ -1043,19 +1049,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
@@ -1066,19 +1072,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
@@ -1089,19 +1095,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
@@ -1112,19 +1118,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
@@ -1135,19 +1141,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
@@ -1158,19 +1164,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1181,19 +1187,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1204,19 +1210,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1227,19 +1233,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1250,19 +1256,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
@@ -1273,19 +1279,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1296,19 +1302,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1319,19 +1325,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1342,19 +1348,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1365,19 +1371,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1388,19 +1394,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1411,19 +1417,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1434,19 +1440,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1457,19 +1463,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1480,19 +1486,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1503,19 +1509,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1526,19 +1532,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1549,19 +1555,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1572,19 +1578,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1595,19 +1601,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1618,19 +1624,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1641,19 +1647,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1664,19 +1670,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1687,19 +1693,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1710,19 +1716,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1733,19 +1739,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1756,19 +1762,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1779,19 +1785,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1802,19 +1808,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1825,19 +1831,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1848,22 +1854,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E58" s="2" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>21</v>
@@ -1871,19 +1877,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1894,19 +1900,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1917,19 +1923,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1940,19 +1946,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1963,19 +1969,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1986,22 +1992,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>21</v>
@@ -2009,22 +2015,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>21</v>
@@ -2032,19 +2038,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2055,22 +2061,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>21</v>
@@ -2078,19 +2084,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2101,19 +2107,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2124,19 +2130,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2147,22 +2153,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>21</v>
@@ -2170,19 +2176,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2193,22 +2199,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>21</v>
@@ -2216,19 +2222,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2239,19 +2245,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2262,19 +2268,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2285,19 +2291,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2308,19 +2314,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2331,19 +2337,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2354,341 +2360,341 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E82" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="C85" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2699,19 +2705,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2722,19 +2728,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2745,19 +2751,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2768,19 +2774,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2791,19 +2797,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2814,19 +2820,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2837,19 +2843,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2860,19 +2866,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2883,19 +2889,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2906,19 +2912,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2929,19 +2935,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2952,19 +2958,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2975,19 +2981,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2998,19 +3004,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3021,19 +3027,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3044,19 +3050,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3067,19 +3073,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3090,19 +3096,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3113,19 +3119,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3136,19 +3142,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3159,19 +3165,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="C115" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3182,19 +3188,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3205,19 +3211,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3228,19 +3234,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3251,19 +3257,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3274,22 +3280,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>21</v>
@@ -3297,22 +3303,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>21</v>
@@ -3320,39 +3326,39 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>136</v>
@@ -3361,881 +3367,651 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="E125" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="E137" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>149</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="153">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,37 +32,40 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita del figlio che viene riconosciuto</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Copia dell'atto di assenso del figlio</t>
+  </si>
+  <si>
+    <t>{evento.datiEventoRiconoscimento.assensoFiglio,=,2}</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita del figlio che viene riconosciuto</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Copia dell'atto di assenso del figlio</t>
-  </si>
-  <si>
-    <t>{evento.datiEventoRiconoscimento.assensoFiglio,=,2}</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>197</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -676,3342 +679,3342 @@
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="154">
   <si>
     <t>Sezione</t>
   </si>
@@ -50,7 +50,10 @@
     <t>Copia dell'atto di assenso del figlio</t>
   </si>
   <si>
-    <t>{evento.datiEventoRiconoscimento.assensoFiglio,=,2}</t>
+    <t>evento.datiEventoRiconoscimento.assensoFiglio,=,2</t>
+  </si>
+  <si>
+    <t>Autorizzazione del tribunale</t>
   </si>
   <si>
     <t>Formula</t>
@@ -284,7 +287,7 @@
     <t>dataMorte</t>
   </si>
   <si>
-    <t>{evento.datiEventoRiconoscimento.preMorto,=,false}</t>
+    <t>evento.datiEventoRiconoscimento.preMorto,=,false</t>
   </si>
   <si>
     <t>Ora</t>
@@ -419,7 +422,7 @@
     <t>assensoFiglio</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.datiRiconoscimento[0].infraQuattordicenne,=,true}</t>
+    <t>evento.datiEventoMatrimonio.datiRiconoscimento[0].infraQuattordicenne,=,true</t>
   </si>
   <si>
     <t>Assenso reso dinanzi a</t>
@@ -434,7 +437,7 @@
     <t>evento.interprete</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -529,7 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -541,7 +544,7 @@
     <col min="4" max="4" width="48.953125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="75.17578125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="73.79296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -615,13 +618,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -638,13 +641,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -660,3361 +663,3384 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F58" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G59" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="F68" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G68" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E110" s="2" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F120" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F121" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C122" s="2" t="s">
+      <c r="F122" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G122" s="2" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="152">
   <si>
     <t>Sezione</t>
   </si>
@@ -410,70 +410,64 @@
     <t>serie</t>
   </si>
   <si>
-    <t>Assenso figlio</t>
+    <t>Atto Assenso Figlio</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.assensoAtto</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)</t>
+  </si>
+  <si>
+    <t>Interprete</t>
+  </si>
+  <si>
+    <t>evento.interprete</t>
+  </si>
+  <si>
+    <t>evento.ausilioInterprete,=,false</t>
+  </si>
+  <si>
+    <t>Dettagli evento</t>
+  </si>
+  <si>
+    <t>Condizioni dichiarante</t>
+  </si>
+  <si>
+    <t>evento.datiDichiarante</t>
+  </si>
+  <si>
+    <t>comprensione</t>
+  </si>
+  <si>
+    <t>Motivo impedimento scrittura</t>
+  </si>
+  <si>
+    <t>motivoImpedimentoScrittura</t>
+  </si>
+  <si>
+    <t>Presenza interprete</t>
+  </si>
+  <si>
+    <t>ausilioInterprete</t>
+  </si>
+  <si>
+    <t>Figlio premorto</t>
+  </si>
+  <si>
+    <t>preMorto</t>
+  </si>
+  <si>
+    <t>Presenza discendenti</t>
+  </si>
+  <si>
+    <t>presenzaDiscendenti</t>
   </si>
   <si>
     <t>Tipo dichiarazione assenso</t>
   </si>
   <si>
-    <t>evento.datiEventoMatrimonio.datiRiconoscimento[0]</t>
-  </si>
-  <si>
     <t>assensoFiglio</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.datiRiconoscimento[0].infraQuattordicenne,=,true</t>
-  </si>
-  <si>
-    <t>Assenso reso dinanzi a</t>
-  </si>
-  <si>
-    <t>assensoReso</t>
-  </si>
-  <si>
-    <t>Interprete</t>
-  </si>
-  <si>
-    <t>evento.interprete</t>
-  </si>
-  <si>
-    <t>evento.ausilioInterprete,=,false</t>
-  </si>
-  <si>
-    <t>Dettagli evento</t>
-  </si>
-  <si>
-    <t>Condizioni dichiarante</t>
-  </si>
-  <si>
-    <t>evento.datiDichiarante</t>
-  </si>
-  <si>
-    <t>comprensione</t>
-  </si>
-  <si>
-    <t>Motivo impedimento scrittura</t>
-  </si>
-  <si>
-    <t>motivoImpedimentoScrittura</t>
-  </si>
-  <si>
-    <t>Presenza interprete</t>
-  </si>
-  <si>
-    <t>ausilioInterprete</t>
-  </si>
-  <si>
-    <t>Figlio premorto</t>
-  </si>
-  <si>
-    <t>preMorto</t>
-  </si>
-  <si>
-    <t>Presenza discendenti</t>
-  </si>
-  <si>
-    <t>presenzaDiscendenti</t>
   </si>
 </sst>
 </file>
@@ -532,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -541,10 +535,10 @@
     <col min="1" max="1" width="41.359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="48.953125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="73.79296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="50.99609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3358,22 +3352,22 @@
         <v>132</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D123" s="2" t="s">
+      <c r="E123" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="124">
@@ -3381,665 +3375,895 @@
         <v>132</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D152" s="2" t="s">
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E152" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
+      <c r="E160" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="158">
   <si>
     <t>Sezione</t>
   </si>
@@ -302,22 +302,40 @@
     <t>minutoMorte</t>
   </si>
   <si>
-    <t>stato</t>
+    <t>Stato di morte</t>
   </si>
   <si>
     <t>idStatoMorte</t>
   </si>
   <si>
-    <t>provincia</t>
+    <t>Stato di morte - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoMorte</t>
+  </si>
+  <si>
+    <t>Provincia di morte</t>
+  </si>
+  <si>
+    <t>idProvinciaMorte</t>
+  </si>
+  <si>
+    <t>Provincia di morte - Descrizione</t>
   </si>
   <si>
     <t>siglaProvinciaMorte</t>
   </si>
   <si>
-    <t>comune</t>
+    <t>Comune di morte</t>
   </si>
   <si>
     <t>idComuneMorte</t>
+  </si>
+  <si>
+    <t>Comune di morte - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneMorte</t>
   </si>
   <si>
     <t>indirizzo</t>
@@ -526,7 +544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:H165"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2553,10 +2571,10 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2567,88 +2585,88 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C89" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2659,19 +2677,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2682,19 +2700,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2705,19 +2723,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2728,19 +2746,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2751,19 +2769,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2774,19 +2792,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2797,19 +2815,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2820,19 +2838,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2843,19 +2861,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2866,19 +2884,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2889,19 +2907,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2912,19 +2930,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2935,19 +2953,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2958,19 +2976,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2981,19 +2999,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3004,19 +3022,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3027,19 +3045,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3050,19 +3068,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3073,19 +3091,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3096,19 +3114,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3119,19 +3137,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3142,16 +3160,16 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>117</v>
@@ -3165,7 +3183,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>118</v>
@@ -3174,7 +3192,7 @@
         <v>16</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>119</v>
@@ -3188,7 +3206,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>120</v>
@@ -3197,7 +3215,7 @@
         <v>16</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>121</v>
@@ -3211,7 +3229,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>122</v>
@@ -3220,10 +3238,10 @@
         <v>16</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3234,19 +3252,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3257,19 +3275,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3280,19 +3298,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3303,22 +3321,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>23</v>
@@ -3326,22 +3344,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>23</v>
@@ -3349,85 +3367,85 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>117</v>
@@ -3436,12 +3454,12 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>118</v>
@@ -3450,7 +3468,7 @@
         <v>16</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>119</v>
@@ -3459,21 +3477,21 @@
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>121</v>
@@ -3482,12 +3500,12 @@
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>122</v>
@@ -3496,720 +3514,720 @@
         <v>16</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="E158" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>147</v>
@@ -4223,7 +4241,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>148</v>
@@ -4232,7 +4250,7 @@
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>149</v>
@@ -4246,7 +4264,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>150</v>
@@ -4255,7 +4273,7 @@
         <v>16</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>151</v>
@@ -4264,6 +4282,75 @@
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -182,6 +182,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -410,22 +416,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Atto Assenso Figlio</t>
@@ -544,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H165"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1366,19 +1372,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1389,19 +1395,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1412,19 +1418,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1435,19 +1441,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1458,19 +1464,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1481,19 +1487,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1504,19 +1510,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1527,19 +1533,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1550,19 +1556,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1573,19 +1579,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1596,19 +1602,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1619,19 +1625,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1642,19 +1648,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1665,19 +1671,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1688,19 +1694,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1711,19 +1717,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1734,19 +1740,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1757,19 +1763,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1780,19 +1786,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1803,19 +1809,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1826,19 +1832,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1849,19 +1855,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1872,10 +1878,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>16</v>
@@ -1884,7 +1890,7 @@
         <v>83</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1895,22 +1901,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>23</v>
@@ -1918,19 +1924,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1941,22 +1947,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>23</v>
@@ -1964,19 +1970,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1987,19 +1993,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2010,19 +2016,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2033,19 +2039,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2056,22 +2062,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>23</v>
@@ -2079,19 +2085,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2102,19 +2108,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>15</v>
@@ -2125,19 +2131,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2148,22 +2154,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>23</v>
@@ -2171,19 +2177,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2194,19 +2200,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2217,19 +2223,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2240,19 +2246,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2263,19 +2269,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2286,19 +2292,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2309,19 +2315,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2332,19 +2338,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2355,19 +2361,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2378,19 +2384,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2404,22 +2410,22 @@
         <v>87</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E81" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82">
@@ -2427,22 +2433,22 @@
         <v>87</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83">
@@ -2450,292 +2456,292 @@
         <v>87</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2746,19 +2752,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2769,19 +2775,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2792,19 +2798,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2815,19 +2821,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2838,19 +2844,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2861,19 +2867,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2884,19 +2890,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2907,19 +2913,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2930,19 +2936,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2953,19 +2959,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2976,19 +2982,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2999,19 +3005,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3022,19 +3028,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3045,19 +3051,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3068,19 +3074,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3091,19 +3097,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3114,19 +3120,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3137,19 +3143,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3163,16 +3169,16 @@
         <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3186,16 +3192,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3209,16 +3215,16 @@
         <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3232,16 +3238,16 @@
         <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3252,19 +3258,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3275,19 +3281,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3298,19 +3304,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3321,19 +3327,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3344,19 +3350,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3367,19 +3373,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3390,22 +3396,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>23</v>
@@ -3413,22 +3419,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>23</v>
@@ -3436,921 +3442,1036 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E127" s="2" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="C129" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
+      <c r="E138" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D139" s="2" t="s">
+      <c r="E139" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D140" s="2" t="s">
+      <c r="E140" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D141" s="2" t="s">
+      <c r="E141" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="E160" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="E161" s="2" t="s">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="E162" s="2" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="E163" s="2" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="E164" s="2" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E165" s="2" t="s">
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="2" t="s">
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
@@ -1930,7 +1930,7 @@
         <v>84</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>85</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="161">
   <si>
     <t>Sezione</t>
   </si>
@@ -449,7 +449,10 @@
     <t>evento.interprete</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -562,7 +565,7 @@
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="50.99609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4319,7 +4322,7 @@
         <v>143</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>16</v>
@@ -4339,19 +4342,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4362,19 +4365,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4385,10 +4388,10 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>16</v>
@@ -4397,7 +4400,7 @@
         <v>21</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4408,10 +4411,10 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>16</v>
@@ -4420,7 +4423,7 @@
         <v>113</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4431,10 +4434,10 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -4443,7 +4446,7 @@
         <v>113</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4454,10 +4457,10 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>16</v>
@@ -4466,7 +4469,7 @@
         <v>113</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -450,9 +450,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -4322,7 +4319,7 @@
         <v>143</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>16</v>
@@ -4342,19 +4339,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="C165" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D165" s="2" t="s">
+      <c r="E165" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4365,19 +4362,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4388,10 +4385,10 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>16</v>
@@ -4400,7 +4397,7 @@
         <v>21</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4411,10 +4408,10 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>16</v>
@@ -4423,7 +4420,7 @@
         <v>113</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4434,10 +4431,10 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -4446,7 +4443,7 @@
         <v>113</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4457,10 +4454,10 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>16</v>
@@ -4469,7 +4466,7 @@
         <v>113</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="161">
   <si>
     <t>Sezione</t>
   </si>
@@ -450,6 +450,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -4319,7 +4322,7 @@
         <v>143</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>16</v>
@@ -4339,19 +4342,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4362,19 +4365,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4385,10 +4388,10 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>16</v>
@@ -4397,7 +4400,7 @@
         <v>21</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4408,10 +4411,10 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>16</v>
@@ -4420,7 +4423,7 @@
         <v>113</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4431,10 +4434,10 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -4443,7 +4446,7 @@
         <v>113</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4454,10 +4457,10 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>16</v>
@@ -4466,7 +4469,7 @@
         <v>113</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="171">
   <si>
     <t>Sezione</t>
   </si>
@@ -264,6 +264,36 @@
   </si>
   <si>
     <t>evento.padre</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Riconoscimento genitore</t>
@@ -553,7 +583,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H170"/>
+  <dimension ref="A1:H179"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -563,7 +593,7 @@
     <col min="2" max="2" width="60.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1936,10 +1966,10 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1950,22 +1980,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>23</v>
@@ -1973,19 +2003,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1996,19 +2026,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2019,19 +2049,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2042,19 +2072,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2065,22 +2095,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>23</v>
@@ -2088,19 +2118,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2111,22 +2141,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>23</v>
@@ -2134,19 +2164,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2157,22 +2187,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>23</v>
@@ -2180,19 +2210,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2203,19 +2233,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2226,22 +2256,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>23</v>
@@ -2249,19 +2279,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2272,22 +2302,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>23</v>
@@ -2295,19 +2325,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2318,19 +2348,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2341,19 +2371,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2364,19 +2394,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2387,19 +2417,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2410,19 +2440,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2433,19 +2463,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2456,19 +2486,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2479,479 +2509,479 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E87" s="2" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C99" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2962,19 +2992,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2985,19 +3015,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3008,19 +3038,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3031,19 +3061,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3054,19 +3084,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3077,19 +3107,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3100,19 +3130,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3123,19 +3153,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3146,19 +3176,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3169,19 +3199,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3192,19 +3222,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3215,19 +3245,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3238,19 +3268,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3261,19 +3291,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3284,19 +3314,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3307,19 +3337,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3330,19 +3360,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3353,19 +3383,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3376,19 +3406,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3399,19 +3429,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3422,19 +3452,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3445,19 +3475,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3468,22 +3498,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>23</v>
@@ -3491,22 +3521,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>23</v>
@@ -3514,19 +3544,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3537,944 +3567,1151 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="C133" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E135" s="2" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C147" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>153</v>
+        <v>68</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>157</v>
+        <v>72</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E170" s="2" t="s">
+      <c r="E174" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -134,6 +134,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -188,13 +194,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -311,205 +317,133 @@
     <t>evento.intestatari[0]</t>
   </si>
   <si>
-    <t>Dati Riconoscimento - Dati di morte</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>evento.datiDiMorte</t>
-  </si>
-  <si>
-    <t>dataMorte</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.preMorto,=,false</t>
-  </si>
-  <si>
-    <t>Ora</t>
-  </si>
-  <si>
-    <t>oraMorte</t>
-  </si>
-  <si>
-    <t>minuti</t>
-  </si>
-  <si>
-    <t>minutoMorte</t>
-  </si>
-  <si>
-    <t>Stato di morte</t>
-  </si>
-  <si>
-    <t>idStatoMorte</t>
-  </si>
-  <si>
-    <t>Stato di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoMorte</t>
-  </si>
-  <si>
-    <t>Provincia di morte</t>
-  </si>
-  <si>
-    <t>idProvinciaMorte</t>
-  </si>
-  <si>
-    <t>Provincia di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaMorte</t>
-  </si>
-  <si>
-    <t>Comune di morte</t>
-  </si>
-  <si>
-    <t>idComuneMorte</t>
-  </si>
-  <si>
-    <t>Comune di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneMorte</t>
-  </si>
-  <si>
-    <t>indirizzo</t>
-  </si>
-  <si>
-    <t>indirizzoMorte</t>
-  </si>
-  <si>
-    <t>Dati prodotti</t>
+    <t>Dati Riconoscimento - Generalità discendenti</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
+  </si>
+  <si>
+    <t>Atto Nascita Figlio</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.attoNascita</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto Assenso Figlio</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.assensoAtto</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)</t>
+  </si>
+  <si>
+    <t>Interprete</t>
+  </si>
+  <si>
+    <t>evento.interprete</t>
+  </si>
+  <si>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
+    <t>Dettagli evento</t>
+  </si>
+  <si>
+    <t>Condizioni dichiarante</t>
+  </si>
+  <si>
+    <t>evento.datiDichiarante</t>
+  </si>
+  <si>
+    <t>comprensione</t>
+  </si>
+  <si>
+    <t>Motivo impedimento scrittura</t>
+  </si>
+  <si>
+    <t>motivoImpedimentoScrittura</t>
+  </si>
+  <si>
+    <t>Presenza interprete</t>
+  </si>
+  <si>
+    <t>ausilioInterprete</t>
+  </si>
+  <si>
+    <t>Figlio premorto</t>
   </si>
   <si>
     <t>evento.datiEventoRiconoscimento</t>
-  </si>
-  <si>
-    <t>Dati Riconoscimento - Generalità discendenti</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
-  </si>
-  <si>
-    <t>Atto Nascita Figlio</t>
-  </si>
-  <si>
-    <t>Id atto</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.attoNascita</t>
-  </si>
-  <si>
-    <t>idAnsc</t>
-  </si>
-  <si>
-    <t>Provincia registrazione</t>
-  </si>
-  <si>
-    <t>idProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Provincia registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione</t>
-  </si>
-  <si>
-    <t>idComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Tipo evento</t>
-  </si>
-  <si>
-    <t>idtipocontenuto</t>
-  </si>
-  <si>
-    <t>Numero Comunale</t>
-  </si>
-  <si>
-    <t>Anno atto</t>
-  </si>
-  <si>
-    <t>annoAtto</t>
-  </si>
-  <si>
-    <t>Data atto</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
-    <t>Tipo registro</t>
-  </si>
-  <si>
-    <t>tipologia</t>
-  </si>
-  <si>
-    <t>Atto Assenso Figlio</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.assensoAtto</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)</t>
-  </si>
-  <si>
-    <t>Interprete</t>
-  </si>
-  <si>
-    <t>evento.interprete</t>
-  </si>
-  <si>
-    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
-    <t>Dettagli evento</t>
-  </si>
-  <si>
-    <t>Condizioni dichiarante</t>
-  </si>
-  <si>
-    <t>evento.datiDichiarante</t>
-  </si>
-  <si>
-    <t>comprensione</t>
-  </si>
-  <si>
-    <t>Motivo impedimento scrittura</t>
-  </si>
-  <si>
-    <t>motivoImpedimentoScrittura</t>
-  </si>
-  <si>
-    <t>Presenza interprete</t>
-  </si>
-  <si>
-    <t>ausilioInterprete</t>
-  </si>
-  <si>
-    <t>Figlio premorto</t>
   </si>
   <si>
     <t>preMorto</t>
@@ -583,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H179"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1428,19 +1362,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1451,19 +1385,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1474,19 +1408,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1497,19 +1431,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1520,19 +1454,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1543,19 +1477,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1566,19 +1500,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1589,19 +1523,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1612,19 +1546,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1635,19 +1569,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1658,19 +1592,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1681,19 +1615,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1704,19 +1638,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1727,19 +1661,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1750,19 +1684,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1773,19 +1707,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1796,19 +1730,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1819,19 +1753,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1842,19 +1776,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1865,19 +1799,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1888,19 +1822,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1911,19 +1845,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1934,19 +1868,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1957,19 +1891,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1980,19 +1914,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2003,19 +1937,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2026,19 +1960,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2049,19 +1983,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2072,19 +2006,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2095,22 +2029,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>23</v>
@@ -2118,19 +2052,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2141,22 +2075,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>23</v>
@@ -2164,19 +2098,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2187,19 +2121,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2210,19 +2144,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2233,19 +2167,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2256,22 +2190,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>23</v>
@@ -2279,19 +2213,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2302,22 +2236,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>23</v>
@@ -2325,22 +2259,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>23</v>
@@ -2348,19 +2282,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2371,22 +2305,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>23</v>
@@ -2394,19 +2328,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2417,19 +2351,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2440,19 +2374,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2463,19 +2397,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2486,19 +2420,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2509,19 +2443,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2532,19 +2466,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2555,19 +2489,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2578,19 +2512,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2601,19 +2535,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2624,19 +2558,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2647,19 +2581,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2670,19 +2604,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2693,19 +2627,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2719,22 +2653,22 @@
         <v>99</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E93" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94">
@@ -2742,22 +2676,22 @@
         <v>99</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95">
@@ -2765,223 +2699,223 @@
         <v>99</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2992,19 +2926,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3015,19 +2949,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3038,19 +2972,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3061,19 +2995,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3084,19 +3018,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3107,19 +3041,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3130,19 +3064,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3153,19 +3087,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3176,19 +3110,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3199,19 +3133,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3222,19 +3156,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3245,19 +3179,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3268,19 +3202,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3291,19 +3225,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3314,19 +3248,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3337,19 +3271,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3360,19 +3294,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3383,19 +3317,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3406,19 +3340,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3429,19 +3363,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3452,19 +3386,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3475,19 +3409,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3498,19 +3432,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3521,19 +3455,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3544,22 +3478,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>23</v>
@@ -3567,22 +3501,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>23</v>
@@ -3590,19 +3524,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3613,33 +3547,33 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>16</v>
@@ -3648,21 +3582,21 @@
         <v>128</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>16</v>
@@ -3671,21 +3605,21 @@
         <v>128</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>16</v>
@@ -3694,44 +3628,44 @@
         <v>128</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>128</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -3740,21 +3674,21 @@
         <v>128</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>16</v>
@@ -3763,955 +3697,817 @@
         <v>128</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="E139" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>149</v>
+        <v>49</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>154</v>
+        <v>21</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="151">
   <si>
     <t>Sezione</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -517,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:H178"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1385,19 +1391,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1408,19 +1414,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1431,19 +1437,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1454,19 +1460,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1477,19 +1483,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1500,19 +1506,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1523,19 +1529,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1546,19 +1552,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1569,19 +1575,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1592,19 +1598,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1615,19 +1621,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1638,19 +1644,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1661,19 +1667,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1684,19 +1690,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1707,19 +1713,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1730,19 +1736,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1753,19 +1759,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1776,19 +1782,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1799,19 +1805,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1822,19 +1828,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1845,19 +1851,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1868,19 +1874,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1891,19 +1897,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1914,19 +1920,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1937,19 +1943,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1960,19 +1966,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1983,19 +1989,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2006,19 +2012,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2029,19 +2035,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2052,19 +2058,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2075,22 +2081,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>23</v>
@@ -2098,19 +2104,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2121,22 +2127,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>23</v>
@@ -2144,19 +2150,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2167,19 +2173,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2190,19 +2196,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2213,19 +2219,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2236,19 +2242,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2259,22 +2265,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>23</v>
@@ -2282,19 +2288,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2305,19 +2311,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>15</v>
@@ -2328,19 +2334,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2351,22 +2357,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>23</v>
@@ -2374,19 +2380,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2397,19 +2403,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2420,19 +2426,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2443,19 +2449,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2466,19 +2472,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2489,19 +2495,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2512,19 +2518,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2535,19 +2541,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2558,19 +2564,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2581,19 +2587,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2604,19 +2610,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2627,19 +2633,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2650,19 +2656,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2673,19 +2679,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2696,19 +2702,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2722,16 +2728,16 @@
         <v>101</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2745,16 +2751,16 @@
         <v>101</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2768,16 +2774,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2788,19 +2794,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2811,19 +2817,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2834,19 +2840,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2857,19 +2863,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2880,19 +2886,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2903,19 +2909,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2926,19 +2932,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2949,19 +2955,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2972,19 +2978,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2995,19 +3001,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3018,19 +3024,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3041,19 +3047,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3064,19 +3070,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3087,19 +3093,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3110,19 +3116,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3133,19 +3139,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3156,19 +3162,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3179,19 +3185,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3202,19 +3208,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3225,19 +3231,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3248,19 +3254,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3274,16 +3280,16 @@
         <v>103</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E120" s="2" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3297,16 +3303,16 @@
         <v>103</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3320,16 +3326,16 @@
         <v>103</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3343,16 +3349,16 @@
         <v>103</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3363,19 +3369,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3386,19 +3392,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3409,19 +3415,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3432,19 +3438,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3455,19 +3461,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3478,22 +3484,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>23</v>
@@ -3501,22 +3507,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>23</v>
@@ -3524,19 +3530,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3547,967 +3553,1082 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E133" s="2" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="C135" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
+      <c r="E144" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D145" s="2" t="s">
+      <c r="E145" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
+      <c r="E146" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D147" s="2" t="s">
+      <c r="E147" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="E167" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E173" s="2" t="s">
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="2" t="s">
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="153">
   <si>
     <t>Sezione</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -523,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H178"/>
+  <dimension ref="A1:H183"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1414,19 +1420,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1437,19 +1443,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1460,19 +1466,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1483,19 +1489,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1506,19 +1512,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1529,19 +1535,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1552,19 +1558,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1575,19 +1581,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1598,19 +1604,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1621,19 +1627,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1644,19 +1650,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1667,19 +1673,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1690,19 +1696,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1713,19 +1719,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1736,19 +1742,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1759,19 +1765,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1782,19 +1788,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1805,19 +1811,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1828,19 +1834,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1851,19 +1857,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1874,19 +1880,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1897,19 +1903,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1920,19 +1926,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1943,19 +1949,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1966,19 +1972,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1989,19 +1995,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2012,19 +2018,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2035,19 +2041,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2058,19 +2064,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2081,19 +2087,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2104,19 +2110,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2127,22 +2133,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>23</v>
@@ -2150,19 +2156,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2173,22 +2179,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>23</v>
@@ -2196,19 +2202,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2219,19 +2225,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2242,19 +2248,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2265,19 +2271,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2288,19 +2294,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2311,22 +2317,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>23</v>
@@ -2334,19 +2340,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2357,19 +2363,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>15</v>
@@ -2380,19 +2386,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2403,22 +2409,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>23</v>
@@ -2426,19 +2432,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2449,19 +2455,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2472,19 +2478,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2495,19 +2501,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2518,19 +2524,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2541,19 +2547,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2564,19 +2570,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2587,19 +2593,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2610,19 +2616,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2633,19 +2639,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2656,19 +2662,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2679,19 +2685,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2702,19 +2708,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2725,19 +2731,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2748,19 +2754,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2771,19 +2777,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2797,16 +2803,16 @@
         <v>103</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2820,16 +2826,16 @@
         <v>103</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2843,16 +2849,16 @@
         <v>103</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2863,19 +2869,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2886,19 +2892,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2909,19 +2915,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2932,19 +2938,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2955,19 +2961,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2978,19 +2984,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3001,19 +3007,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3024,19 +3030,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3047,19 +3053,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3070,19 +3076,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3093,19 +3099,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3116,19 +3122,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3139,19 +3145,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3162,19 +3168,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3185,19 +3191,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3208,19 +3214,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3231,19 +3237,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3254,19 +3260,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3277,19 +3283,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3300,19 +3306,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3323,19 +3329,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3346,19 +3352,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3372,16 +3378,16 @@
         <v>105</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E124" s="2" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3395,16 +3401,16 @@
         <v>105</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3418,16 +3424,16 @@
         <v>105</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3441,16 +3447,16 @@
         <v>105</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3461,19 +3467,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3484,19 +3490,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3507,19 +3513,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3530,19 +3536,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3553,19 +3559,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3576,22 +3582,22 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>23</v>
@@ -3599,22 +3605,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>23</v>
@@ -3622,19 +3628,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3645,990 +3651,1105 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E137" s="2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="C139" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D139" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E139" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
+      <c r="E148" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D149" s="2" t="s">
+      <c r="E149" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
+      <c r="E150" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D151" s="2" t="s">
+      <c r="E151" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E172" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E178" s="2" t="s">
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F178" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="2" t="s">
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="155">
   <si>
     <t>Sezione</t>
   </si>
@@ -399,6 +399,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -529,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H183"/>
+  <dimension ref="A1:H185"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3726,7 +3732,7 @@
         <v>129</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>109</v>
@@ -3735,7 +3741,7 @@
         <v>130</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>23</v>
@@ -3743,939 +3749,939 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D140" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E140" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
+      <c r="E152" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D153" s="2" t="s">
+      <c r="E153" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E177" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4686,19 +4692,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -4709,19 +4715,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D182" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
@@ -4732,24 +4738,70 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E183" s="2" t="s">
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="153">
   <si>
     <t>Sezione</t>
   </si>
@@ -327,12 +327,6 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>Dati Riconoscimento - Generalità discendenti</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
   </si>
   <si>
     <t>Atto Nascita Figlio</t>
@@ -535,16 +529,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H185"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="43.30859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
@@ -2878,16 +2872,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2901,16 +2895,16 @@
         <v>105</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2924,16 +2918,16 @@
         <v>105</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2947,16 +2941,16 @@
         <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2970,16 +2964,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2993,16 +2987,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3016,16 +3010,16 @@
         <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3039,16 +3033,16 @@
         <v>105</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3062,16 +3056,16 @@
         <v>105</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3085,19 +3079,19 @@
         <v>105</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>23</v>
@@ -3108,19 +3102,19 @@
         <v>105</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>23</v>
@@ -3131,19 +3125,19 @@
         <v>105</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>23</v>
@@ -3154,16 +3148,16 @@
         <v>105</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3174,1634 +3168,1036 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
@@ -3749,7 +3749,7 @@
         <v>60</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>135</v>
@@ -3772,7 +3772,7 @@
         <v>62</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>135</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
@@ -413,7 +413,7 @@
     <t>evento.datiEventoRiconoscimento.assensoAtto</t>
   </si>
   <si>
-    <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1)</t>
+    <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1,3)</t>
   </si>
   <si>
     <t>Interprete</t>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="157">
   <si>
     <t>Sezione</t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -529,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1443,19 +1455,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1466,19 +1478,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1489,19 +1501,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1512,19 +1524,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1535,19 +1547,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1558,19 +1570,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1581,19 +1593,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1604,19 +1616,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1627,19 +1639,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1650,19 +1662,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1673,19 +1685,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1696,19 +1708,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1719,19 +1731,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1742,19 +1754,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1765,19 +1777,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1788,19 +1800,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1811,19 +1823,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1834,19 +1846,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1857,19 +1869,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1880,19 +1892,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1903,19 +1915,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1926,19 +1938,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1949,19 +1961,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1972,19 +1984,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1995,19 +2007,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2018,19 +2030,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2041,19 +2053,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2064,19 +2076,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2087,19 +2099,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2110,19 +2122,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2133,19 +2145,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2156,19 +2168,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2179,22 +2191,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>23</v>
@@ -2202,19 +2214,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2225,19 +2237,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2248,19 +2260,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2271,22 +2283,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>23</v>
@@ -2294,19 +2306,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2317,19 +2329,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2340,19 +2352,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2363,22 +2375,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>23</v>
@@ -2386,19 +2398,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2409,22 +2421,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>23</v>
@@ -2432,19 +2444,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2455,19 +2467,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2478,19 +2490,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2501,22 +2513,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>23</v>
@@ -2524,19 +2536,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2547,22 +2559,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>23</v>
@@ -2570,19 +2582,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2593,19 +2605,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2616,19 +2628,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2639,19 +2651,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2662,19 +2674,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2685,19 +2697,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2708,19 +2720,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2731,19 +2743,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2754,19 +2766,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2777,19 +2789,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2800,19 +2812,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2823,19 +2835,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2846,19 +2858,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2869,19 +2881,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2892,19 +2904,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2915,19 +2927,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2938,19 +2950,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2961,19 +2973,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2984,19 +2996,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3007,19 +3019,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3030,19 +3042,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3053,19 +3065,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3076,22 +3088,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>23</v>
@@ -3099,22 +3111,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>23</v>
@@ -3122,22 +3134,22 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>23</v>
@@ -3145,19 +3157,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3168,899 +3180,899 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E117" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="C119" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="154">
@@ -4068,22 +4080,22 @@
         <v>138</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D154" s="2" t="s">
+      <c r="E154" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="155">
@@ -4091,22 +4103,22 @@
         <v>138</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="156">
@@ -4114,22 +4126,22 @@
         <v>138</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
     </row>
     <row r="157">
@@ -4137,22 +4149,22 @@
         <v>138</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
     </row>
     <row r="158">
@@ -4160,22 +4172,22 @@
         <v>138</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
     </row>
     <row r="159">
@@ -4183,21 +4195,205 @@
         <v>138</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E159" s="2" t="s">
+      <c r="E165" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="2" t="s">
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_005.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="158">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,7 +47,7 @@
     <t/>
   </si>
   <si>
-    <t>Copia dell'atto di assenso del figlio</t>
+    <t>Copia dell'atto di dichiarazione/assenso del figlio</t>
   </si>
   <si>
     <t>evento.datiEventoRiconoscimento.assensoFiglio,=,2</t>
@@ -419,10 +419,16 @@
     <t>tipologia</t>
   </si>
   <si>
-    <t>Atto Assenso Figlio</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.assensoAtto</t>
+    <t>Assenso figlio</t>
+  </si>
+  <si>
+    <t>Assenso reso dinanzi a:</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento</t>
+  </si>
+  <si>
+    <t>assensoReso</t>
   </si>
   <si>
     <t>evento.datiEventoRiconoscimento.assensoFiglio,in,(0,1,3)</t>
@@ -465,9 +471,6 @@
   </si>
   <si>
     <t>Figlio premorto</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento</t>
   </si>
   <si>
     <t>preMorto</t>
@@ -541,16 +544,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.21875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="43.30859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
@@ -3321,1079 +3324,803 @@
         <v>135</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="2" t="s">
         <v>23</v>
       </c>
     </row>
